--- a/Data/Input/Config.xlsx
+++ b/Data/Input/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOT-DEV-012\Documents\UiPath\Email_2_Case\Email_2_Case\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOT-DEV-012\Documents\UiPath\Email_To_Case_Latest\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45E725E-BD4D-40A6-92A0-E0ACACCC4911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9908F1E-1258-49B3-8F67-01D903A71E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -898,7 +898,7 @@
         <v>96</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1890,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Input/Config.xlsx
+++ b/Data/Input/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOT-DEV-012\Documents\UiPath\Email_To_Case_Latest\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9908F1E-1258-49B3-8F67-01D903A71E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ACA4E2-B8CB-48E7-9C1A-675F8510D228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -328,17 +328,41 @@
     <t>Threshold</t>
   </si>
   <si>
-    <t>C:\Users\BOT-DEV-012\Documents\UiPath\Email_2_Case\Email_2_Case\Data\Input\NewOrderDetailTemplate.xls</t>
-  </si>
-  <si>
-    <t>C:\Users\BOT-DEV-012\Documents\UiPath\Email_2_Case\Email_2_Case\OCR_HotFolder</t>
+    <t>SP_URL</t>
+  </si>
+  <si>
+    <t>SP_DriverName</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>SP_Subfolder</t>
+  </si>
+  <si>
+    <t>SP_Subfolder_1</t>
+  </si>
+  <si>
+    <t>https://novozymes.sharepoint.com/sites/OTC-transformation-Phase-1</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AI/UAT Output</t>
+  </si>
+  <si>
+    <t>OCR_HotFolder</t>
+  </si>
+  <si>
+    <t>Data\Input\NewOrderDetailTemplate.xls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -375,6 +399,11 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -396,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -410,6 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -901,10 +931,38 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1890,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2137,7 +2195,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -2145,7 +2203,7 @@
         <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">

--- a/Data/Input/Config.xlsx
+++ b/Data/Input/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOT-DEV-012\Documents\UiPath\Email_To_Case_Latest\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ACA4E2-B8CB-48E7-9C1A-675F8510D228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47793463-08A9-4A78-9A02-5B62A0EE4277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -356,6 +356,13 @@
   </si>
   <si>
     <t>Data\Input\NewOrderDetailTemplate.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no-reply-ITSurvey@novozymes.com,no-reply.nzmarket_Sm_Fullsend@novozymes.com,no-reply-NZregistrations@novozymes.com,no-reply-NovozymesIT@novozymes.com,no-reply_lms@novozymes.com,no-reply.nzmarket@novozymes.com,no-reply@novozymes.com,accessportal@novozymes.com,noreply_documentservice@novozymes.com,noreply-systemstest@novozymes.com,noreply-sentinel@novozymes.com,noreply-facilitymanagement@novozymes.com,noreply-dooraccess@novozymes.com,noreply_novozymesmarket@novozymes.com,noreply3@novozymes.com,noreply2@novozymes.com,noreply1@novozymes.com,noreplyworkspacemigration_sm_full-sent@novozymes.com
+</t>
+  </si>
+  <si>
+    <t>No-ReplyList</t>
   </si>
 </sst>
 </file>
@@ -425,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -437,9 +444,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,7 +949,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -940,26 +957,26 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1948,14 +1965,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="2" max="2" width="51" style="3" customWidth="1"/>
     <col min="3" max="3" width="75.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
@@ -1964,7 +1981,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1998,7 +2015,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2009,7 +2026,7 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2020,7 +2037,7 @@
       <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2028,7 +2045,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
@@ -2040,7 +2057,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
@@ -2051,7 +2068,7 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -2062,7 +2079,7 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
@@ -2073,7 +2090,7 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
@@ -2084,7 +2101,7 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
@@ -2095,7 +2112,7 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
@@ -2107,7 +2124,7 @@
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -2118,7 +2135,7 @@
       <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -2130,7 +2147,7 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="b">
+      <c r="B17" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2141,7 +2158,7 @@
       <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2149,7 +2166,7 @@
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2162,7 +2179,7 @@
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2170,7 +2187,7 @@
       <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2178,7 +2195,7 @@
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2186,7 +2203,7 @@
       <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2194,7 +2211,7 @@
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2202,7 +2219,7 @@
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2210,7 +2227,7 @@
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2218,7 +2235,7 @@
       <c r="A28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2226,7 +2243,7 @@
       <c r="A29" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2234,7 +2251,7 @@
       <c r="A30" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2242,11 +2259,18 @@
       <c r="A31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3215,7 +3239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>

--- a/Data/Input/Config.xlsx
+++ b/Data/Input/Config.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOT-DEV-012\Documents\UiPath\Email_To_Case_Latest\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47793463-08A9-4A78-9A02-5B62A0EE4277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD18D24-DC31-4163-BE94-79BBFEA17823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
-    <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="RegionMapping" sheetId="4" r:id="rId2"/>
+    <sheet name="Constants" sheetId="2" r:id="rId3"/>
+    <sheet name="Assets" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
   <si>
     <t>Name</t>
   </si>
@@ -322,9 +323,6 @@
     <t>Mail_InboxFolder</t>
   </si>
   <si>
-    <t>Inbox\Demo</t>
-  </si>
-  <si>
     <t>Threshold</t>
   </si>
   <si>
@@ -363,6 +361,150 @@
   </si>
   <si>
     <t>No-ReplyList</t>
+  </si>
+  <si>
+    <t>Inbox</t>
+  </si>
+  <si>
+    <t>Mail_Accounts</t>
+  </si>
+  <si>
+    <t>BioAgCS@novozymes.com,myorder@novozymes.com</t>
+  </si>
+  <si>
+    <t>Mailbox Origin</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Mailbox name</t>
+  </si>
+  <si>
+    <t>Date Format</t>
+  </si>
+  <si>
+    <t>US Mailbox</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>myorder@novozymes.com</t>
+  </si>
+  <si>
+    <t>MM/dd/yyyy</t>
+  </si>
+  <si>
+    <t>NZ-GOP@novozymes.com</t>
+  </si>
+  <si>
+    <t>BioAg US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioAgCS@novozymes.com </t>
+  </si>
+  <si>
+    <t>Brazil Mailbox</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Argentina Mailbox</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Malaysia Mailbox</t>
+  </si>
+  <si>
+    <t>APAC</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>ORDERMY@novozymes.com</t>
+  </si>
+  <si>
+    <t>dd/MM/yyyy</t>
+  </si>
+  <si>
+    <t>AUS-Nz Mailbox</t>
+  </si>
+  <si>
+    <t>AU/NZ</t>
+  </si>
+  <si>
+    <t>cslnzau@novozymes.com</t>
+  </si>
+  <si>
+    <t>scoau@novozymes.com</t>
+  </si>
+  <si>
+    <t>India Mailbox</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Inorders@@novozymes.com</t>
+  </si>
+  <si>
+    <t>CWE Mailbox</t>
+  </si>
+  <si>
+    <t>EMA</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>CSL_Food@novozymes.com</t>
+  </si>
+  <si>
+    <t>Starch</t>
+  </si>
+  <si>
+    <t>CSL_Starch@novozymes.com</t>
+  </si>
+  <si>
+    <t>Distributors</t>
+  </si>
+  <si>
+    <t>CWE-distributors@novozymes.com</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>CSL_Feed@novozymes.com</t>
+  </si>
+  <si>
+    <t>Household Care</t>
+  </si>
+  <si>
+    <t>CSL_HHC@Novozymes.com</t>
+  </si>
+  <si>
+    <t>South Africa Mailbox</t>
+  </si>
+  <si>
+    <t>Africa (South Africa)</t>
+  </si>
+  <si>
+    <t>Csr-za@novozymes.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order@novozymes.com </t>
   </si>
 </sst>
 </file>
@@ -412,15 +554,21 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -428,11 +576,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -457,6 +620,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,13 +939,13 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
@@ -937,12 +1102,12 @@
         <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19">
         <v>70</v>
@@ -950,37 +1115,44 @@
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1962,11 +2134,338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5DC66D-4439-4304-AE1A-013769129780}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2212,7 +2711,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -2220,7 +2719,7 @@
         <v>77</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -2265,10 +2764,10 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1"/>
@@ -3235,12 +3734,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Input/Config.xlsx
+++ b/Data/Input/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOT-DEV-012\Documents\UiPath\Email_To_Case_Latest\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD18D24-DC31-4163-BE94-79BBFEA17823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B73D04-DBC2-404B-8AE6-48EC30EB1EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="157">
   <si>
     <t>Name</t>
   </si>
@@ -408,9 +408,6 @@
     <t>BioAg US</t>
   </si>
   <si>
-    <t xml:space="preserve">BioAgCS@novozymes.com </t>
-  </si>
-  <si>
     <t>Brazil Mailbox</t>
   </si>
   <si>
@@ -505,6 +502,12 @@
   </si>
   <si>
     <t xml:space="preserve">Order@novozymes.com </t>
+  </si>
+  <si>
+    <t>BioAgCS@novozymes.com</t>
+  </si>
+  <si>
+    <t>SIBI@novozymes.com;vsk@novozymes.com</t>
   </si>
 </sst>
 </file>
@@ -938,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1055,7 +1058,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -2137,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5DC66D-4439-4304-AE1A-013769129780}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15"/>
@@ -2176,7 +2179,7 @@
       <c r="C2" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>119</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -2193,7 +2196,7 @@
       <c r="C3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -2210,8 +2213,8 @@
       <c r="C4" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>123</v>
+      <c r="D4" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>120</v>
@@ -2219,13 +2222,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>121</v>
@@ -2236,13 +2239,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>121</v>
@@ -2253,206 +2256,206 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>121</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="C13" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="C14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="C15" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="C16" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>151</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
